--- a/data/gfg/GFG_Export_2021-04-12.xlsx
+++ b/data/gfg/GFG_Export_2021-04-12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://marineconservation.sharepoint.com/sites/FisheriesAquacultureTeam/Shared Documents/Good Fish Guide/Data sharing/Data Sharing Requests/Lancaster Uni Apr 2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robins64/Documents/git_repos/ghg/data/gfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_A59F2BC04EE469F503867FC6A61E833A2F94E87A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA3D3C7-A339-8740-95CA-FBC46C3D5680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6960" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28140" windowHeight="14980" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summer 2021 Master" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summer 2021 Master'!$A$1:$W$735</definedName>
     <definedName name="classification">[1]VLookUp!$B$1:$D$652</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2314,7 +2314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9710,31 +9710,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W735"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A91" sqref="A91:XFD91"/>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="T16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
-    <col min="2" max="3" width="30.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.7109375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="14.28515625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="14.28515625" style="4" customWidth="1"/>
-    <col min="13" max="14" width="12.28515625" style="4"/>
-    <col min="15" max="15" width="13.42578125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="12.28515625" style="4" customWidth="1"/>
-    <col min="22" max="23" width="12.28515625" style="6"/>
-    <col min="24" max="16384" width="12.28515625" style="4"/>
+    <col min="2" max="3" width="30.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.6640625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="14.33203125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="14.33203125" style="4" customWidth="1"/>
+    <col min="13" max="14" width="12.33203125" style="4"/>
+    <col min="15" max="15" width="13.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="12.33203125" style="4" customWidth="1"/>
+    <col min="22" max="23" width="12.33203125" style="6"/>
+    <col min="24" max="16384" width="12.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="28.5" customHeight="1">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>748</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>772</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>27</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>28</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>29</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>400</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>911</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>912</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1021</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>226</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>227</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>228</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>229</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>230</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>231</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>232</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>234</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>235</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>236</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>482</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>483</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>573</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1072</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1073</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>220</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>796</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>797</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>476</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1">
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>396</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>478</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>785</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>252</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15" customHeight="1">
+    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>378</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1074</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1075</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1076</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>30</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>31</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>32</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>33</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>34</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>35</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>36</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>37</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>40</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>41</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>42</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>43</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>44</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>45</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>46</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>47</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>48</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>49</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>52</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>394</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>395</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>576</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>625</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>700</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>701</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>702</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>822</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>890</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>891</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>955</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>998</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="15" customHeight="1">
+    <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>350</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="15" customHeight="1">
+    <row r="70" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>423</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>456</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>457</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>841</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>842</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>843</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>364</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="15" customHeight="1">
+    <row r="77" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>365</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="15" customHeight="1">
+    <row r="78" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>367</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="15" customHeight="1">
+    <row r="79" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>368</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="15" customHeight="1">
+    <row r="80" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>369</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>473</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>474</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="15" customHeight="1">
+    <row r="83" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>857</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15" customHeight="1">
+    <row r="84" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>920</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="15" customHeight="1">
+    <row r="85" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>921</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="15" customHeight="1">
+    <row r="86" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>1024</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="15" customHeight="1">
+    <row r="87" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>1025</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>615</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>616</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>684</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="15" customHeight="1">
+    <row r="91" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>347</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="15" customHeight="1">
+    <row r="92" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>424</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="15" customHeight="1">
+    <row r="93" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>824</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15" customHeight="1">
+    <row r="94" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>839</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>446</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>447</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>487</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>488</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>719</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>720</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>721</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>879</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>880</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>881</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>882</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>1014</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>1015</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>1016</v>
       </c>
@@ -14366,7 +14366,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>1017</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>1018</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>1019</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>13</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>591</v>
       </c>
@@ -14586,7 +14586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>592</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>593</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>659</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>767</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>849</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>913</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>319</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="15" customHeight="1">
+    <row r="121" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>498</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>514</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>515</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>517</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="15" customHeight="1">
+    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>1020</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>933</v>
       </c>
@@ -15149,7 +15149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>949</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>320</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>321</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>628</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>629</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>630</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>205</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>206</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>521</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>522</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>523</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>524</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>525</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>526</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>730</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>754</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>866</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>867</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>868</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>869</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>1043</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>1044</v>
       </c>
@@ -16120,7 +16120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>1045</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>1046</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>1047</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>1048</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>1049</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>511</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>727</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>437</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="15" customHeight="1">
+    <row r="157" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>981</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>887</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>888</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>889</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>53</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>54</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>56</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>57</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>58</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>401</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>956</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>1004</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>449</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>454</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>722</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>723</v>
       </c>
@@ -17173,7 +17173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>870</v>
       </c>
@@ -17217,7 +17217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>904</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>905</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>906</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>975</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>657</v>
       </c>
@@ -17437,7 +17437,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>743</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>744</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>746</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>1058</v>
       </c>
@@ -17613,7 +17613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>1059</v>
       </c>
@@ -17657,7 +17657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>9</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>942</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>943</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>944</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>945</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>1032</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>1033</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>1034</v>
       </c>
@@ -18009,7 +18009,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>1035</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>1036</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>1037</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>1038</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>1039</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>1077</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>149</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>725</v>
       </c>
@@ -18361,7 +18361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>631</v>
       </c>
@@ -18405,7 +18405,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>632</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>633</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>14</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>15</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>660</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>95</v>
       </c>
@@ -18669,7 +18669,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>96</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>404</v>
       </c>
@@ -18757,7 +18757,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>635</v>
       </c>
@@ -18801,7 +18801,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>636</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>502</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>124</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>125</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>126</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>127</v>
       </c>
@@ -19065,7 +19065,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>128</v>
       </c>
@@ -19109,7 +19109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>129</v>
       </c>
@@ -19153,7 +19153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>130</v>
       </c>
@@ -19197,7 +19197,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>131</v>
       </c>
@@ -19241,7 +19241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>132</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>133</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>139</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>140</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>141</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>142</v>
       </c>
@@ -19508,7 +19508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>414</v>
       </c>
@@ -19555,7 +19555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>608</v>
       </c>
@@ -19599,7 +19599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>691</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>692</v>
       </c>
@@ -19687,7 +19687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>693</v>
       </c>
@@ -19731,7 +19731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>694</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>821</v>
       </c>
@@ -19822,7 +19822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>965</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>1063</v>
       </c>
@@ -19910,7 +19910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>1064</v>
       </c>
@@ -19954,7 +19954,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>1065</v>
       </c>
@@ -19998,7 +19998,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>171</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>172</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>173</v>
       </c>
@@ -20130,7 +20130,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>626</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>798</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>1040</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>150</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="15" customHeight="1">
+    <row r="244" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>382</v>
       </c>
@@ -20344,7 +20344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>724</v>
       </c>
@@ -20382,7 +20382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>75</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>76</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>77</v>
       </c>
@@ -20514,7 +20514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>707</v>
       </c>
@@ -20558,7 +20558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>708</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>221</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>459</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>460</v>
       </c>
@@ -20740,7 +20740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>461</v>
       </c>
@@ -20784,7 +20784,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>462</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>463</v>
       </c>
@@ -20872,7 +20872,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <v>464</v>
       </c>
@@ -20916,7 +20916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <v>465</v>
       </c>
@@ -20960,7 +20960,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <v>621</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>698</v>
       </c>
@@ -21048,7 +21048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <v>1050</v>
       </c>
@@ -21092,7 +21092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <v>1051</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <v>1052</v>
       </c>
@@ -21180,7 +21180,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
         <v>1053</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
         <v>1054</v>
       </c>
@@ -21268,7 +21268,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
         <v>1055</v>
       </c>
@@ -21312,7 +21312,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
         <v>1056</v>
       </c>
@@ -21356,7 +21356,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <v>97</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <v>98</v>
       </c>
@@ -21444,7 +21444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="15" customHeight="1">
+    <row r="270" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
         <v>425</v>
       </c>
@@ -21482,7 +21482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="15" customHeight="1">
+    <row r="271" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <v>348</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="15" customHeight="1">
+    <row r="272" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
         <v>568</v>
       </c>
@@ -21567,7 +21567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <v>639</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
         <v>640</v>
       </c>
@@ -21655,7 +21655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="15" customHeight="1">
+    <row r="275" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
         <v>972</v>
       </c>
@@ -21699,7 +21699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="15" customHeight="1">
+    <row r="276" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
         <v>973</v>
       </c>
@@ -21743,7 +21743,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
         <v>323</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
         <v>324</v>
       </c>
@@ -21831,7 +21831,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <v>325</v>
       </c>
@@ -21875,7 +21875,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
         <v>326</v>
       </c>
@@ -21919,7 +21919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
         <v>419</v>
       </c>
@@ -21963,7 +21963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
         <v>976</v>
       </c>
@@ -22007,7 +22007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
         <v>977</v>
       </c>
@@ -22051,7 +22051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
         <v>153</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
         <v>154</v>
       </c>
@@ -22139,7 +22139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
         <v>152</v>
       </c>
@@ -22183,7 +22183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
         <v>641</v>
       </c>
@@ -22227,7 +22227,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
         <v>703</v>
       </c>
@@ -22271,7 +22271,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
         <v>571</v>
       </c>
@@ -22315,7 +22315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
         <v>412</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
         <v>60</v>
       </c>
@@ -22400,7 +22400,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
         <v>61</v>
       </c>
@@ -22444,7 +22444,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
         <v>62</v>
       </c>
@@ -22494,7 +22494,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
         <v>63</v>
       </c>
@@ -22544,7 +22544,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
         <v>64</v>
       </c>
@@ -22594,7 +22594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
         <v>65</v>
       </c>
@@ -22641,7 +22641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
         <v>66</v>
       </c>
@@ -22688,7 +22688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A298" s="4">
         <v>67</v>
       </c>
@@ -22735,7 +22735,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A299" s="4">
         <v>68</v>
       </c>
@@ -22779,7 +22779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
         <v>69</v>
       </c>
@@ -22823,7 +22823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A301" s="4">
         <v>70</v>
       </c>
@@ -22867,7 +22867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A302" s="4">
         <v>71</v>
       </c>
@@ -22911,7 +22911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
         <v>73</v>
       </c>
@@ -22955,7 +22955,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A304" s="4">
         <v>696</v>
       </c>
@@ -22999,7 +22999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A305" s="4">
         <v>907</v>
       </c>
@@ -23043,7 +23043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A306" s="4">
         <v>908</v>
       </c>
@@ -23093,7 +23093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
         <v>909</v>
       </c>
@@ -23140,7 +23140,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A308" s="4">
         <v>957</v>
       </c>
@@ -23184,7 +23184,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A309" s="4">
         <v>958</v>
       </c>
@@ -23228,7 +23228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A310" s="4">
         <v>1005</v>
       </c>
@@ -23275,7 +23275,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A311" s="4">
         <v>176</v>
       </c>
@@ -23319,7 +23319,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A312" s="4">
         <v>177</v>
       </c>
@@ -23363,7 +23363,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A313" s="4">
         <v>178</v>
       </c>
@@ -23407,7 +23407,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314" s="4">
         <v>180</v>
       </c>
@@ -23445,7 +23445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A315" s="4">
         <v>181</v>
       </c>
@@ -23483,7 +23483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A316" s="4">
         <v>182</v>
       </c>
@@ -23527,7 +23527,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="317" spans="1:23">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A317" s="4">
         <v>183</v>
       </c>
@@ -23565,7 +23565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A318" s="4">
         <v>187</v>
       </c>
@@ -23603,7 +23603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A319" s="4">
         <v>192</v>
       </c>
@@ -23650,7 +23650,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="320" spans="1:23">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A320" s="4">
         <v>679</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A321" s="4">
         <v>757</v>
       </c>
@@ -23726,7 +23726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:23">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A322" s="4">
         <v>959</v>
       </c>
@@ -23767,7 +23767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:23">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A323" s="4">
         <v>960</v>
       </c>
@@ -23814,7 +23814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="324" spans="1:23">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A324" s="4">
         <v>1006</v>
       </c>
@@ -23858,7 +23858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="325" spans="1:23">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A325" s="4">
         <v>1007</v>
       </c>
@@ -23902,7 +23902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="326" spans="1:23">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A326" s="4">
         <v>658</v>
       </c>
@@ -23946,7 +23946,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="327" spans="1:23">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A327" s="4">
         <v>759</v>
       </c>
@@ -23990,7 +23990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="328" spans="1:23">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A328" s="4">
         <v>760</v>
       </c>
@@ -24034,7 +24034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="329" spans="1:23">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A329" s="4">
         <v>492</v>
       </c>
@@ -24078,7 +24078,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="330" spans="1:23">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A330" s="4">
         <v>1008</v>
       </c>
@@ -24122,7 +24122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="331" spans="1:23">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A331" s="4">
         <v>1009</v>
       </c>
@@ -24166,7 +24166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="332" spans="1:23">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A332" s="4">
         <v>1010</v>
       </c>
@@ -24210,7 +24210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="333" spans="1:23">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A333" s="4">
         <v>1011</v>
       </c>
@@ -24254,7 +24254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="334" spans="1:23">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A334" s="4">
         <v>786</v>
       </c>
@@ -24289,7 +24289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:23">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A335" s="4">
         <v>787</v>
       </c>
@@ -24324,7 +24324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:23">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A336" s="4">
         <v>784</v>
       </c>
@@ -24359,7 +24359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:23">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A337" s="4">
         <v>158</v>
       </c>
@@ -24403,7 +24403,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="338" spans="1:23">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A338" s="4">
         <v>534</v>
       </c>
@@ -24447,7 +24447,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="339" spans="1:23">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A339" s="4">
         <v>623</v>
       </c>
@@ -24491,7 +24491,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="340" spans="1:23">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A340" s="4">
         <v>624</v>
       </c>
@@ -24535,7 +24535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="341" spans="1:23">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A341" s="4">
         <v>699</v>
       </c>
@@ -24579,7 +24579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="342" spans="1:23">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A342" s="4">
         <v>224</v>
       </c>
@@ -24626,7 +24626,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="343" spans="1:23">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A343" s="4">
         <v>982</v>
       </c>
@@ -24673,7 +24673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="15" customHeight="1">
+    <row r="344" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4">
         <v>353</v>
       </c>
@@ -24714,7 +24714,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="345" spans="1:23" ht="15" customHeight="1">
+    <row r="345" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4">
         <v>354</v>
       </c>
@@ -24758,7 +24758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="346" spans="1:23" ht="15" customHeight="1">
+    <row r="346" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4">
         <v>355</v>
       </c>
@@ -24802,7 +24802,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="15" customHeight="1">
+    <row r="347" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4">
         <v>356</v>
       </c>
@@ -24846,7 +24846,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="348" spans="1:23" ht="15" customHeight="1">
+    <row r="348" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4">
         <v>499</v>
       </c>
@@ -24887,7 +24887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="349" spans="1:23" ht="15" customHeight="1">
+    <row r="349" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4">
         <v>764</v>
       </c>
@@ -24928,7 +24928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="350" spans="1:23" ht="15" customHeight="1">
+    <row r="350" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4">
         <v>774</v>
       </c>
@@ -24972,7 +24972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="15" customHeight="1">
+    <row r="351" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4">
         <v>847</v>
       </c>
@@ -25016,7 +25016,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="352" spans="1:23">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A352" s="4">
         <v>431</v>
       </c>
@@ -25063,7 +25063,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="353" spans="1:23">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A353" s="4">
         <v>433</v>
       </c>
@@ -25110,7 +25110,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="354" spans="1:23">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A354" s="4">
         <v>434</v>
       </c>
@@ -25157,7 +25157,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="355" spans="1:23">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A355" s="4">
         <v>607</v>
       </c>
@@ -25204,7 +25204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="356" spans="1:23">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A356" s="4">
         <v>690</v>
       </c>
@@ -25251,7 +25251,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="357" spans="1:23">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A357" s="4">
         <v>826</v>
       </c>
@@ -25298,7 +25298,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="358" spans="1:23">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A358" s="4">
         <v>827</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="359" spans="1:23">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A359" s="4">
         <v>828</v>
       </c>
@@ -25392,7 +25392,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="360" spans="1:23">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A360" s="4">
         <v>829</v>
       </c>
@@ -25439,7 +25439,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="361" spans="1:23">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A361" s="4">
         <v>832</v>
       </c>
@@ -25486,7 +25486,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="362" spans="1:23">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A362" s="4">
         <v>922</v>
       </c>
@@ -25533,7 +25533,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="363" spans="1:23">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A363" s="4">
         <v>923</v>
       </c>
@@ -25580,7 +25580,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="364" spans="1:23">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A364" s="4">
         <v>924</v>
       </c>
@@ -25627,7 +25627,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="365" spans="1:23">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A365" s="4">
         <v>926</v>
       </c>
@@ -25674,7 +25674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="366" spans="1:23">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A366" s="4">
         <v>927</v>
       </c>
@@ -25721,7 +25721,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="367" spans="1:23">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A367" s="4">
         <v>928</v>
       </c>
@@ -25768,7 +25768,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="368" spans="1:23">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A368" s="4">
         <v>929</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="369" spans="1:23">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A369" s="4">
         <v>930</v>
       </c>
@@ -25859,7 +25859,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="370" spans="1:23">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A370" s="4">
         <v>931</v>
       </c>
@@ -25903,7 +25903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="371" spans="1:23">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A371" s="4">
         <v>947</v>
       </c>
@@ -25950,7 +25950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="372" spans="1:23">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A372" s="4">
         <v>985</v>
       </c>
@@ -25994,7 +25994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="373" spans="1:23" ht="15" customHeight="1">
+    <row r="373" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4">
         <v>1026</v>
       </c>
@@ -26035,7 +26035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="374" spans="1:23">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A374" s="4">
         <v>1027</v>
       </c>
@@ -26082,7 +26082,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="375" spans="1:23">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A375" s="4">
         <v>1028</v>
       </c>
@@ -26129,7 +26129,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="376" spans="1:23">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A376" s="4">
         <v>1029</v>
       </c>
@@ -26173,7 +26173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="377" spans="1:23">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A377" s="4">
         <v>1030</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="378" spans="1:23" ht="15" customHeight="1">
+    <row r="378" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4">
         <v>1012</v>
       </c>
@@ -26261,7 +26261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="379" spans="1:23" ht="15" customHeight="1">
+    <row r="379" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4">
         <v>1013</v>
       </c>
@@ -26305,7 +26305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="380" spans="1:23">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A380" s="4">
         <v>143</v>
       </c>
@@ -26349,7 +26349,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="381" spans="1:23">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A381" s="4">
         <v>144</v>
       </c>
@@ -26393,7 +26393,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="382" spans="1:23">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A382" s="4">
         <v>145</v>
       </c>
@@ -26437,7 +26437,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="383" spans="1:23">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A383" s="4">
         <v>535</v>
       </c>
@@ -26481,7 +26481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="384" spans="1:23">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A384" s="4">
         <v>609</v>
       </c>
@@ -26525,7 +26525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="385" spans="1:23">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A385" s="4">
         <v>610</v>
       </c>
@@ -26569,7 +26569,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="386" spans="1:23">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A386" s="4">
         <v>1</v>
       </c>
@@ -26613,7 +26613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="387" spans="1:23">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A387" s="4">
         <v>649</v>
       </c>
@@ -26657,7 +26657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="388" spans="1:23">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A388" s="4">
         <v>650</v>
       </c>
@@ -26701,7 +26701,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="389" spans="1:23">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A389" s="4">
         <v>651</v>
       </c>
@@ -26745,7 +26745,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="390" spans="1:23">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A390" s="4">
         <v>840</v>
       </c>
@@ -26789,7 +26789,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="391" spans="1:23">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A391" s="4">
         <v>80</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="392" spans="1:23">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A392" s="4">
         <v>652</v>
       </c>
@@ -26877,7 +26877,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="393" spans="1:23">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A393" s="4">
         <v>653</v>
       </c>
@@ -26921,7 +26921,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="394" spans="1:23">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A394" s="4">
         <v>654</v>
       </c>
@@ -26965,7 +26965,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="395" spans="1:23">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A395" s="4">
         <v>655</v>
       </c>
@@ -27009,7 +27009,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="396" spans="1:23">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A396" s="4">
         <v>10</v>
       </c>
@@ -27053,7 +27053,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="397" spans="1:23">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A397" s="4">
         <v>193</v>
       </c>
@@ -27097,7 +27097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="1:23">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A398" s="4">
         <v>196</v>
       </c>
@@ -27144,7 +27144,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="399" spans="1:23">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A399" s="4">
         <v>197</v>
       </c>
@@ -27191,7 +27191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="400" spans="1:23">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A400" s="4">
         <v>715</v>
       </c>
@@ -27235,7 +27235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="401" spans="1:23">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A401" s="4">
         <v>871</v>
       </c>
@@ -27279,7 +27279,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="402" spans="1:23">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
         <v>961</v>
       </c>
@@ -27323,7 +27323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="403" spans="1:23">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <v>962</v>
       </c>
@@ -27367,7 +27367,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="404" spans="1:23">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A404" s="4">
         <v>963</v>
       </c>
@@ -27411,7 +27411,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="405" spans="1:23">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A405" s="4">
         <v>508</v>
       </c>
@@ -27446,7 +27446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:23" ht="15" customHeight="1">
+    <row r="406" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4">
         <v>751</v>
       </c>
@@ -27487,7 +27487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="15" customHeight="1">
+    <row r="407" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
         <v>468</v>
       </c>
@@ -27528,7 +27528,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="408" spans="1:23" ht="15" customHeight="1">
+    <row r="408" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <v>978</v>
       </c>
@@ -27572,7 +27572,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="409" spans="1:23" ht="15" customHeight="1">
+    <row r="409" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4">
         <v>979</v>
       </c>
@@ -27616,7 +27616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="410" spans="1:23" ht="15" customHeight="1">
+    <row r="410" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
         <v>980</v>
       </c>
@@ -27660,7 +27660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="411" spans="1:23">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A411" s="4">
         <v>99</v>
       </c>
@@ -27704,7 +27704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="412" spans="1:23">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A412" s="4">
         <v>100</v>
       </c>
@@ -27748,7 +27748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="413" spans="1:23">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A413" s="4">
         <v>102</v>
       </c>
@@ -27792,7 +27792,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="414" spans="1:23">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A414" s="4">
         <v>418</v>
       </c>
@@ -27836,7 +27836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="415" spans="1:23">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A415" s="4">
         <v>605</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="416" spans="1:23">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A416" s="4">
         <v>686</v>
       </c>
@@ -27924,7 +27924,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="417" spans="1:23">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A417" s="4">
         <v>164</v>
       </c>
@@ -27968,7 +27968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="418" spans="1:23">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A418" s="4">
         <v>165</v>
       </c>
@@ -28012,7 +28012,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="419" spans="1:23">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A419" s="4">
         <v>469</v>
       </c>
@@ -28047,7 +28047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:23" ht="15" customHeight="1">
+    <row r="420" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4">
         <v>470</v>
       </c>
@@ -28088,7 +28088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="421" spans="1:23">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A421" s="4">
         <v>471</v>
       </c>
@@ -28123,7 +28123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:23">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A422" s="4">
         <v>645</v>
       </c>
@@ -28167,7 +28167,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="423" spans="1:23">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A423" s="4">
         <v>345</v>
       </c>
@@ -28214,7 +28214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="424" spans="1:23">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A424" s="4">
         <v>346</v>
       </c>
@@ -28258,7 +28258,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="425" spans="1:23">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A425" s="4">
         <v>504</v>
       </c>
@@ -28305,7 +28305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="426" spans="1:23">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A426" s="4">
         <v>1022</v>
       </c>
@@ -28352,7 +28352,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="427" spans="1:23">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A427" s="4">
         <v>1023</v>
       </c>
@@ -28396,7 +28396,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="428" spans="1:23">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A428" s="4">
         <v>11</v>
       </c>
@@ -28440,7 +28440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="429" spans="1:23">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A429" s="4">
         <v>3</v>
       </c>
@@ -28484,7 +28484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="430" spans="1:23">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A430" s="4">
         <v>656</v>
       </c>
@@ -28528,7 +28528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="431" spans="1:23">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A431" s="4">
         <v>845</v>
       </c>
@@ -28572,7 +28572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="432" spans="1:23">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A432" s="4">
         <v>846</v>
       </c>
@@ -28616,7 +28616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="433" spans="1:23">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A433" s="4">
         <v>253</v>
       </c>
@@ -28654,7 +28654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:23">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A434" s="4">
         <v>733</v>
       </c>
@@ -28698,7 +28698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="435" spans="1:23">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A435" s="4">
         <v>734</v>
       </c>
@@ -28745,7 +28745,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="436" spans="1:23">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A436" s="4">
         <v>893</v>
       </c>
@@ -28792,7 +28792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="437" spans="1:23">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A437" s="4">
         <v>894</v>
       </c>
@@ -28839,7 +28839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="438" spans="1:23">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A438" s="4">
         <v>896</v>
       </c>
@@ -28886,7 +28886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="439" spans="1:23">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A439" s="4">
         <v>898</v>
       </c>
@@ -28933,7 +28933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="440" spans="1:23">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A440" s="4">
         <v>899</v>
       </c>
@@ -28980,7 +28980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="441" spans="1:23">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A441" s="4">
         <v>999</v>
       </c>
@@ -29027,7 +29027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="442" spans="1:23">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A442" s="4">
         <v>1000</v>
       </c>
@@ -29074,7 +29074,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="443" spans="1:23">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A443" s="4">
         <v>1001</v>
       </c>
@@ -29121,7 +29121,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="444" spans="1:23">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A444" s="4">
         <v>1002</v>
       </c>
@@ -29168,7 +29168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="445" spans="1:23">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A445" s="4">
         <v>1003</v>
       </c>
@@ -29212,7 +29212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="446" spans="1:23" ht="15" customHeight="1">
+    <row r="446" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4">
         <v>472</v>
       </c>
@@ -29253,7 +29253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="447" spans="1:23" ht="15" customHeight="1">
+    <row r="447" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4">
         <v>872</v>
       </c>
@@ -29282,7 +29282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:23">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A448" s="4">
         <v>964</v>
       </c>
@@ -29326,7 +29326,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="449" spans="1:23">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A449" s="4">
         <v>168</v>
       </c>
@@ -29373,7 +29373,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="450" spans="1:23">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A450" s="4">
         <v>838</v>
       </c>
@@ -29417,7 +29417,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="451" spans="1:23">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A451" s="4">
         <v>1041</v>
       </c>
@@ -29461,7 +29461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="452" spans="1:23">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A452" s="4">
         <v>1042</v>
       </c>
@@ -29505,7 +29505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="453" spans="1:23">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A453" s="4">
         <v>216</v>
       </c>
@@ -29552,7 +29552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="454" spans="1:23">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A454" s="4">
         <v>983</v>
       </c>
@@ -29599,7 +29599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="455" spans="1:23">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A455" s="4">
         <v>104</v>
       </c>
@@ -29643,7 +29643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="456" spans="1:23">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A456" s="4">
         <v>105</v>
       </c>
@@ -29687,7 +29687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="457" spans="1:23">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A457" s="4">
         <v>108</v>
       </c>
@@ -29731,7 +29731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="458" spans="1:23">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A458" s="4">
         <v>109</v>
       </c>
@@ -29775,7 +29775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="459" spans="1:23">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A459" s="4">
         <v>110</v>
       </c>
@@ -29819,7 +29819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="460" spans="1:23">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A460" s="4">
         <v>111</v>
       </c>
@@ -29863,7 +29863,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="461" spans="1:23">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A461" s="4">
         <v>112</v>
       </c>
@@ -29907,7 +29907,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="462" spans="1:23">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A462" s="4">
         <v>113</v>
       </c>
@@ -29951,7 +29951,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="463" spans="1:23">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A463" s="4">
         <v>114</v>
       </c>
@@ -29995,7 +29995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="464" spans="1:23">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A464" s="4">
         <v>116</v>
       </c>
@@ -30039,7 +30039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="465" spans="1:23">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A465" s="4">
         <v>117</v>
       </c>
@@ -30083,7 +30083,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="466" spans="1:23">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A466" s="4">
         <v>118</v>
       </c>
@@ -30127,7 +30127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="467" spans="1:23">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A467" s="4">
         <v>119</v>
       </c>
@@ -30171,7 +30171,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="468" spans="1:23">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A468" s="4">
         <v>120</v>
       </c>
@@ -30209,7 +30209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:23">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469" s="4">
         <v>121</v>
       </c>
@@ -30247,7 +30247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:23">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A470" s="4">
         <v>716</v>
       </c>
@@ -30291,7 +30291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="471" spans="1:23">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A471" s="4">
         <v>717</v>
       </c>
@@ -30335,7 +30335,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="472" spans="1:23">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A472" s="4">
         <v>718</v>
       </c>
@@ -30379,7 +30379,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="473" spans="1:23">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A473" s="4">
         <v>776</v>
       </c>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:23">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A474" s="4">
         <v>86</v>
       </c>
@@ -30467,7 +30467,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="475" spans="1:23">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A475" s="4">
         <v>103</v>
       </c>
@@ -30511,7 +30511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="476" spans="1:23">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A476" s="4">
         <v>709</v>
       </c>
@@ -30555,7 +30555,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="477" spans="1:23">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A477" s="4">
         <v>710</v>
       </c>
@@ -30599,7 +30599,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="478" spans="1:23">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A478" s="4">
         <v>711</v>
       </c>
@@ -30643,7 +30643,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="479" spans="1:23">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A479" s="4">
         <v>781</v>
       </c>
@@ -30687,7 +30687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="480" spans="1:23">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A480" s="4">
         <v>782</v>
       </c>
@@ -30731,7 +30731,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="481" spans="1:23">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A481" s="4">
         <v>783</v>
       </c>
@@ -30775,7 +30775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="482" spans="1:23">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A482" s="4">
         <v>4</v>
       </c>
@@ -30813,7 +30813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:23">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A483" s="4">
         <v>88</v>
       </c>
@@ -30857,7 +30857,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="484" spans="1:23">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A484" s="4">
         <v>682</v>
       </c>
@@ -30901,7 +30901,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="485" spans="1:23">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A485" s="4">
         <v>800</v>
       </c>
@@ -30945,7 +30945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="486" spans="1:23">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A486" s="4">
         <v>801</v>
       </c>
@@ -30989,7 +30989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="487" spans="1:23">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A487" s="4">
         <v>680</v>
       </c>
@@ -31033,7 +31033,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="488" spans="1:23">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A488" s="4">
         <v>741</v>
       </c>
@@ -31071,7 +31071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:23">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A489" s="4">
         <v>742</v>
       </c>
@@ -31109,7 +31109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:23">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A490" s="4">
         <v>825</v>
       </c>
@@ -31153,7 +31153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="491" spans="1:23">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A491" s="4">
         <v>932</v>
       </c>
@@ -31191,7 +31191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" spans="1:23" ht="15" customHeight="1">
+    <row r="492" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="4">
         <v>1031</v>
       </c>
@@ -31232,7 +31232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="493" spans="1:23" ht="15" customHeight="1">
+    <row r="493" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="4">
         <v>375</v>
       </c>
@@ -31273,7 +31273,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="494" spans="1:23" ht="15" customHeight="1">
+    <row r="494" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4">
         <v>376</v>
       </c>
@@ -31314,7 +31314,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="495" spans="1:23">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A495" s="4">
         <v>505</v>
       </c>
@@ -31352,7 +31352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496" spans="1:23">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A496" s="4">
         <v>506</v>
       </c>
@@ -31396,7 +31396,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="497" spans="1:23">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A497" s="4">
         <v>678</v>
       </c>
@@ -31440,7 +31440,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="498" spans="1:23">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A498" s="4">
         <v>753</v>
       </c>
@@ -31478,7 +31478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:23">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A499" s="4">
         <v>883</v>
       </c>
@@ -31516,7 +31516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:23">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A500" s="4">
         <v>884</v>
       </c>
@@ -31560,7 +31560,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="501" spans="1:23">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A501" s="4">
         <v>885</v>
       </c>
@@ -31604,7 +31604,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="502" spans="1:23">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A502" s="4">
         <v>886</v>
       </c>
@@ -31642,7 +31642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503" spans="1:23">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A503" s="4">
         <v>974</v>
       </c>
@@ -31686,7 +31686,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="504" spans="1:23">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A504" s="4">
         <v>156</v>
       </c>
@@ -31730,7 +31730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="505" spans="1:23">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A505" s="4">
         <v>643</v>
       </c>
@@ -31774,7 +31774,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="506" spans="1:23">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A506" s="4">
         <v>644</v>
       </c>
@@ -31818,7 +31818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="507" spans="1:23">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A507" s="4">
         <v>705</v>
       </c>
@@ -31862,7 +31862,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="508" spans="1:23">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A508" s="4">
         <v>420</v>
       </c>
@@ -31906,7 +31906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="509" spans="1:23">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A509" s="4">
         <v>491</v>
       </c>
@@ -31950,7 +31950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="510" spans="1:23">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510" s="4">
         <v>575</v>
       </c>
@@ -31994,7 +31994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="511" spans="1:23">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A511" s="4">
         <v>669</v>
       </c>
@@ -32038,7 +32038,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="512" spans="1:23">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512" s="4">
         <v>670</v>
       </c>
@@ -32082,7 +32082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="513" spans="1:23">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A513" s="4">
         <v>671</v>
       </c>
@@ -32126,7 +32126,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="514" spans="1:23">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A514" s="4">
         <v>844</v>
       </c>
@@ -32170,7 +32170,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="515" spans="1:23">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A515" s="4">
         <v>222</v>
       </c>
@@ -32217,7 +32217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="516" spans="1:23">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A516" s="4">
         <v>984</v>
       </c>
@@ -32264,7 +32264,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="517" spans="1:23">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A517" s="4">
         <v>873</v>
       </c>
@@ -32308,7 +32308,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="518" spans="1:23">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A518" s="4">
         <v>874</v>
       </c>
@@ -32352,7 +32352,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="519" spans="1:23">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A519" s="4">
         <v>875</v>
       </c>
@@ -32396,7 +32396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="520" spans="1:23">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A520" s="4">
         <v>17</v>
       </c>
@@ -32440,7 +32440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="521" spans="1:23">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A521" s="4">
         <v>661</v>
       </c>
@@ -32484,7 +32484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="522" spans="1:23">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A522" s="4">
         <v>850</v>
       </c>
@@ -32528,7 +32528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="523" spans="1:23">
+    <row r="523" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A523" s="4">
         <v>200</v>
       </c>
@@ -32572,7 +32572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="524" spans="1:23">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A524" s="4">
         <v>475</v>
       </c>
@@ -32616,7 +32616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="525" spans="1:23">
+    <row r="525" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A525" s="4">
         <v>823</v>
       </c>
@@ -32663,7 +32663,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="526" spans="1:23">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A526" s="4">
         <v>954</v>
       </c>
@@ -32710,7 +32710,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="527" spans="1:23">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A527" s="4">
         <v>1060</v>
       </c>
@@ -32757,7 +32757,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="528" spans="1:23">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A528" s="4">
         <v>1061</v>
       </c>
@@ -32804,7 +32804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="529" spans="1:23">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A529" s="4">
         <v>1062</v>
       </c>
@@ -32848,7 +32848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="530" spans="1:23">
+    <row r="530" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A530" s="4">
         <v>411</v>
       </c>
@@ -32892,7 +32892,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="531" spans="1:23">
+    <row r="531" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A531" s="4">
         <v>331</v>
       </c>
@@ -32936,7 +32936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="532" spans="1:23">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A532" s="4">
         <v>332</v>
       </c>
@@ -32980,7 +32980,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="533" spans="1:23">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A533" s="4">
         <v>333</v>
       </c>
@@ -33027,7 +33027,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="534" spans="1:23">
+    <row r="534" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A534" s="4">
         <v>334</v>
       </c>
@@ -33074,7 +33074,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="535" spans="1:23">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A535" s="4">
         <v>335</v>
       </c>
@@ -33121,7 +33121,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="536" spans="1:23">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A536" s="4">
         <v>336</v>
       </c>
@@ -33168,7 +33168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="537" spans="1:23">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A537" s="4">
         <v>339</v>
       </c>
@@ -33215,7 +33215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="538" spans="1:23">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A538" s="4">
         <v>340</v>
       </c>
@@ -33259,7 +33259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="539" spans="1:23">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A539" s="4">
         <v>341</v>
       </c>
@@ -33306,7 +33306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="540" spans="1:23">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A540" s="4">
         <v>342</v>
       </c>
@@ -33353,7 +33353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="541" spans="1:23">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A541" s="4">
         <v>577</v>
       </c>
@@ -33397,7 +33397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="542" spans="1:23">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A542" s="4">
         <v>578</v>
       </c>
@@ -33444,7 +33444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="543" spans="1:23">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A543" s="4">
         <v>579</v>
       </c>
@@ -33488,7 +33488,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="544" spans="1:23">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A544" s="4">
         <v>580</v>
       </c>
@@ -33532,7 +33532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="545" spans="1:23">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A545" s="4">
         <v>581</v>
       </c>
@@ -33576,7 +33576,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="546" spans="1:23">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A546" s="4">
         <v>582</v>
       </c>
@@ -33623,7 +33623,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="547" spans="1:23">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A547" s="4">
         <v>583</v>
       </c>
@@ -33670,7 +33670,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="548" spans="1:23">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A548" s="4">
         <v>584</v>
       </c>
@@ -33717,7 +33717,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="549" spans="1:23">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A549" s="4">
         <v>585</v>
       </c>
@@ -33764,7 +33764,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="550" spans="1:23">
+    <row r="550" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A550" s="4">
         <v>586</v>
       </c>
@@ -33811,7 +33811,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="551" spans="1:23">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A551" s="4">
         <v>587</v>
       </c>
@@ -33858,7 +33858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="552" spans="1:23">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A552" s="4">
         <v>588</v>
       </c>
@@ -33902,7 +33902,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="553" spans="1:23">
+    <row r="553" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A553" s="4">
         <v>589</v>
       </c>
@@ -33949,7 +33949,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="554" spans="1:23">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A554" s="4">
         <v>820</v>
       </c>
@@ -33993,7 +33993,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="555" spans="1:23">
+    <row r="555" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A555" s="4">
         <v>169</v>
       </c>
@@ -34037,7 +34037,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="556" spans="1:23" ht="15" customHeight="1">
+    <row r="556" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="4">
         <v>370</v>
       </c>
@@ -34078,7 +34078,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="557" spans="1:23">
+    <row r="557" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A557" s="4">
         <v>398</v>
       </c>
@@ -34122,7 +34122,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="558" spans="1:23" ht="15" customHeight="1">
+    <row r="558" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="4">
         <v>567</v>
       </c>
@@ -34166,7 +34166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="559" spans="1:23">
+    <row r="559" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A559" s="4">
         <v>712</v>
       </c>
@@ -34210,7 +34210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="560" spans="1:23">
+    <row r="560" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A560" s="4">
         <v>714</v>
       </c>
@@ -34254,7 +34254,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="561" spans="1:23">
+    <row r="561" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A561" s="4">
         <v>777</v>
       </c>
@@ -34298,7 +34298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="562" spans="1:23">
+    <row r="562" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A562" s="4">
         <v>778</v>
       </c>
@@ -34342,7 +34342,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="563" spans="1:23">
+    <row r="563" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A563" s="4">
         <v>779</v>
       </c>
@@ -34386,7 +34386,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="564" spans="1:23">
+    <row r="564" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A564" s="4">
         <v>865</v>
       </c>
@@ -34430,7 +34430,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="565" spans="1:23">
+    <row r="565" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A565" s="4">
         <v>877</v>
       </c>
@@ -34474,7 +34474,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="566" spans="1:23">
+    <row r="566" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A566" s="4">
         <v>878</v>
       </c>
@@ -34518,7 +34518,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="567" spans="1:23" ht="15" customHeight="1">
+    <row r="567" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="4">
         <v>970</v>
       </c>
@@ -34562,7 +34562,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="568" spans="1:23" ht="15" customHeight="1">
+    <row r="568" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="4">
         <v>971</v>
       </c>
@@ -34606,7 +34606,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="569" spans="1:23">
+    <row r="569" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A569" s="4">
         <v>988</v>
       </c>
@@ -34650,7 +34650,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="570" spans="1:23">
+    <row r="570" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A570" s="4">
         <v>989</v>
       </c>
@@ -34694,7 +34694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="571" spans="1:23">
+    <row r="571" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A571" s="4">
         <v>990</v>
       </c>
@@ -34738,7 +34738,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="572" spans="1:23">
+    <row r="572" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A572" s="4">
         <v>991</v>
       </c>
@@ -34782,7 +34782,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="573" spans="1:23">
+    <row r="573" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A573" s="4">
         <v>992</v>
       </c>
@@ -34826,7 +34826,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="574" spans="1:23">
+    <row r="574" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A574" s="4">
         <v>993</v>
       </c>
@@ -34870,7 +34870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="575" spans="1:23">
+    <row r="575" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A575" s="4">
         <v>994</v>
       </c>
@@ -34914,7 +34914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="576" spans="1:23">
+    <row r="576" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A576" s="4">
         <v>995</v>
       </c>
@@ -34958,7 +34958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="577" spans="1:23">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A577" s="4">
         <v>996</v>
       </c>
@@ -35002,7 +35002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="578" spans="1:23">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A578" s="4">
         <v>997</v>
       </c>
@@ -35046,7 +35046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="579" spans="1:23">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A579" s="4">
         <v>18</v>
       </c>
@@ -35090,7 +35090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="580" spans="1:23">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A580" s="4">
         <v>662</v>
       </c>
@@ -35134,7 +35134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="581" spans="1:23">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A581" s="4">
         <v>914</v>
       </c>
@@ -35178,7 +35178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="582" spans="1:23">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A582" s="4">
         <v>255</v>
       </c>
@@ -35222,7 +35222,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="583" spans="1:23">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A583" s="4">
         <v>258</v>
       </c>
@@ -35260,7 +35260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:23">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A584" s="4">
         <v>259</v>
       </c>
@@ -35304,7 +35304,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="585" spans="1:23">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A585" s="4">
         <v>260</v>
       </c>
@@ -35348,7 +35348,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="586" spans="1:23">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A586" s="4">
         <v>262</v>
       </c>
@@ -35392,7 +35392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="587" spans="1:23">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A587" s="4">
         <v>263</v>
       </c>
@@ -35439,7 +35439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="588" spans="1:23">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A588" s="4">
         <v>265</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="589" spans="1:23">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A589" s="4">
         <v>266</v>
       </c>
@@ -35527,7 +35527,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="590" spans="1:23">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A590" s="4">
         <v>267</v>
       </c>
@@ -35565,7 +35565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="1:23">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A591" s="4">
         <v>269</v>
       </c>
@@ -35609,7 +35609,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="592" spans="1:23">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A592" s="4">
         <v>270</v>
       </c>
@@ -35653,7 +35653,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="593" spans="1:23">
+    <row r="593" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A593" s="4">
         <v>271</v>
       </c>
@@ -35697,7 +35697,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="594" spans="1:23">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A594" s="4">
         <v>272</v>
       </c>
@@ -35741,7 +35741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="595" spans="1:23">
+    <row r="595" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A595" s="4">
         <v>681</v>
       </c>
@@ -35785,7 +35785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="596" spans="1:23">
+    <row r="596" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A596" s="4">
         <v>19</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="597" spans="1:23">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A597" s="4">
         <v>594</v>
       </c>
@@ -35873,7 +35873,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="598" spans="1:23">
+    <row r="598" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A598" s="4">
         <v>663</v>
       </c>
@@ -35917,7 +35917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="599" spans="1:23">
+    <row r="599" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A599" s="4">
         <v>851</v>
       </c>
@@ -35961,7 +35961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="600" spans="1:23">
+    <row r="600" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A600" s="4">
         <v>852</v>
       </c>
@@ -36005,7 +36005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="601" spans="1:23">
+    <row r="601" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A601" s="4">
         <v>7</v>
       </c>
@@ -36049,7 +36049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="602" spans="1:23">
+    <row r="602" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A602" s="4">
         <v>674</v>
       </c>
@@ -36093,7 +36093,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="603" spans="1:23">
+    <row r="603" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A603" s="4">
         <v>858</v>
       </c>
@@ -36137,7 +36137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="604" spans="1:23">
+    <row r="604" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A604" s="4">
         <v>254</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="605" spans="1:23">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A605" s="4">
         <v>509</v>
       </c>
@@ -36219,7 +36219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="606" spans="1:23">
+    <row r="606" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A606" s="4">
         <v>510</v>
       </c>
@@ -36263,7 +36263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="607" spans="1:23">
+    <row r="607" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A607" s="4">
         <v>611</v>
       </c>
@@ -36307,7 +36307,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="608" spans="1:23">
+    <row r="608" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A608" s="4">
         <v>612</v>
       </c>
@@ -36351,7 +36351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="609" spans="1:23">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A609" s="4">
         <v>900</v>
       </c>
@@ -36395,7 +36395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="610" spans="1:23">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A610" s="4">
         <v>20</v>
       </c>
@@ -36439,7 +36439,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="611" spans="1:23">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A611" s="4">
         <v>21</v>
       </c>
@@ -36483,7 +36483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="612" spans="1:23">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A612" s="4">
         <v>595</v>
       </c>
@@ -36527,7 +36527,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="613" spans="1:23">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A613" s="4">
         <v>596</v>
       </c>
@@ -36571,7 +36571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="614" spans="1:23">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A614" s="4">
         <v>664</v>
       </c>
@@ -36615,7 +36615,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="615" spans="1:23">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A615" s="4">
         <v>915</v>
       </c>
@@ -36659,7 +36659,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="616" spans="1:23">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A616" s="4">
         <v>916</v>
       </c>
@@ -36703,7 +36703,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="617" spans="1:23">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A617" s="4">
         <v>202</v>
       </c>
@@ -36747,7 +36747,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="618" spans="1:23">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A618" s="4">
         <v>770</v>
       </c>
@@ -36791,7 +36791,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="619" spans="1:23">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A619" s="4">
         <v>771</v>
       </c>
@@ -36835,7 +36835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="620" spans="1:23">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A620" s="4">
         <v>966</v>
       </c>
@@ -36879,7 +36879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="621" spans="1:23">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A621" s="4">
         <v>2</v>
       </c>
@@ -36917,7 +36917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="622" spans="1:23">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A622" s="4">
         <v>986</v>
       </c>
@@ -36955,7 +36955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="623" spans="1:23">
+    <row r="623" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A623" s="4">
         <v>1066</v>
       </c>
@@ -36999,7 +36999,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="624" spans="1:23">
+    <row r="624" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A624" s="4">
         <v>1067</v>
       </c>
@@ -37043,7 +37043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="625" spans="1:23">
+    <row r="625" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A625" s="4">
         <v>1068</v>
       </c>
@@ -37087,7 +37087,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="626" spans="1:23">
+    <row r="626" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A626" s="4">
         <v>1069</v>
       </c>
@@ -37134,7 +37134,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="627" spans="1:23">
+    <row r="627" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A627" s="4">
         <v>1070</v>
       </c>
@@ -37181,7 +37181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="628" spans="1:23">
+    <row r="628" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A628" s="4">
         <v>1071</v>
       </c>
@@ -37228,7 +37228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="629" spans="1:23">
+    <row r="629" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A629" s="4">
         <v>22</v>
       </c>
@@ -37266,7 +37266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="630" spans="1:23">
+    <row r="630" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A630" s="4">
         <v>917</v>
       </c>
@@ -37304,7 +37304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="631" spans="1:23">
+    <row r="631" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A631" s="4">
         <v>225</v>
       </c>
@@ -37348,7 +37348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="632" spans="1:23" ht="15" customHeight="1">
+    <row r="632" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="4">
         <v>427</v>
       </c>
@@ -37389,7 +37389,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="633" spans="1:23">
+    <row r="633" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A633" s="4">
         <v>294</v>
       </c>
@@ -37433,7 +37433,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="634" spans="1:23">
+    <row r="634" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A634" s="4">
         <v>297</v>
       </c>
@@ -37477,7 +37477,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="635" spans="1:23">
+    <row r="635" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A635" s="4">
         <v>298</v>
       </c>
@@ -37521,7 +37521,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="636" spans="1:23">
+    <row r="636" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A636" s="4">
         <v>299</v>
       </c>
@@ -37565,7 +37565,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="637" spans="1:23">
+    <row r="637" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A637" s="4">
         <v>301</v>
       </c>
@@ -37609,7 +37609,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="638" spans="1:23">
+    <row r="638" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A638" s="4">
         <v>302</v>
       </c>
@@ -37653,7 +37653,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="639" spans="1:23">
+    <row r="639" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A639" s="4">
         <v>303</v>
       </c>
@@ -37691,7 +37691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="1:23">
+    <row r="640" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A640" s="4">
         <v>304</v>
       </c>
@@ -37735,7 +37735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="641" spans="1:23">
+    <row r="641" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A641" s="4">
         <v>305</v>
       </c>
@@ -37773,7 +37773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="642" spans="1:23">
+    <row r="642" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A642" s="4">
         <v>306</v>
       </c>
@@ -37817,7 +37817,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="643" spans="1:23">
+    <row r="643" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A643" s="4">
         <v>307</v>
       </c>
@@ -37861,7 +37861,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="644" spans="1:23">
+    <row r="644" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A644" s="4">
         <v>572</v>
       </c>
@@ -37908,7 +37908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="645" spans="1:23">
+    <row r="645" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A645" s="4">
         <v>836</v>
       </c>
@@ -37955,7 +37955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="646" spans="1:23">
+    <row r="646" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A646" s="4">
         <v>24</v>
       </c>
@@ -37999,7 +37999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="647" spans="1:23">
+    <row r="647" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A647" s="4">
         <v>25</v>
       </c>
@@ -38043,7 +38043,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="648" spans="1:23">
+    <row r="648" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A648" s="4">
         <v>597</v>
       </c>
@@ -38087,7 +38087,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="649" spans="1:23">
+    <row r="649" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A649" s="4">
         <v>599</v>
       </c>
@@ -38131,7 +38131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="650" spans="1:23">
+    <row r="650" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A650" s="4">
         <v>665</v>
       </c>
@@ -38175,7 +38175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="651" spans="1:23">
+    <row r="651" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A651" s="4">
         <v>666</v>
       </c>
@@ -38219,7 +38219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="652" spans="1:23">
+    <row r="652" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A652" s="4">
         <v>667</v>
       </c>
@@ -38263,7 +38263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="653" spans="1:23">
+    <row r="653" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A653" s="4">
         <v>853</v>
       </c>
@@ -38307,7 +38307,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="654" spans="1:23">
+    <row r="654" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A654" s="4">
         <v>854</v>
       </c>
@@ -38351,7 +38351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="655" spans="1:23">
+    <row r="655" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A655" s="4">
         <v>855</v>
       </c>
@@ -38395,7 +38395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="656" spans="1:23">
+    <row r="656" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A656" s="4">
         <v>918</v>
       </c>
@@ -38439,7 +38439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="657" spans="1:23">
+    <row r="657" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A657" s="4">
         <v>948</v>
       </c>
@@ -38483,7 +38483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="658" spans="1:23" ht="15" customHeight="1">
+    <row r="658" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="4">
         <v>357</v>
       </c>
@@ -38524,7 +38524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="659" spans="1:23" ht="15" customHeight="1">
+    <row r="659" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="4">
         <v>359</v>
       </c>
@@ -38565,7 +38565,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="660" spans="1:23" ht="15" customHeight="1">
+    <row r="660" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="4">
         <v>360</v>
       </c>
@@ -38606,7 +38606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="661" spans="1:23" ht="15" customHeight="1">
+    <row r="661" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="4">
         <v>361</v>
       </c>
@@ -38650,7 +38650,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="662" spans="1:23" ht="15" customHeight="1">
+    <row r="662" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="4">
         <v>362</v>
       </c>
@@ -38694,7 +38694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="663" spans="1:23" ht="15" customHeight="1">
+    <row r="663" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="4">
         <v>363</v>
       </c>
@@ -38738,7 +38738,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="664" spans="1:23" ht="15" customHeight="1">
+    <row r="664" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="4">
         <v>775</v>
       </c>
@@ -38782,7 +38782,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="665" spans="1:23" ht="15" customHeight="1">
+    <row r="665" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="4">
         <v>848</v>
       </c>
@@ -38826,7 +38826,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="666" spans="1:23" ht="15" customHeight="1">
+    <row r="666" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="4">
         <v>373</v>
       </c>
@@ -38870,7 +38870,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="667" spans="1:23" ht="15" customHeight="1">
+    <row r="667" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="4">
         <v>967</v>
       </c>
@@ -38911,7 +38911,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="668" spans="1:23">
+    <row r="668" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A668" s="4">
         <v>5</v>
       </c>
@@ -38949,7 +38949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="669" spans="1:23">
+    <row r="669" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A669" s="4">
         <v>672</v>
       </c>
@@ -38987,7 +38987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="670" spans="1:23">
+    <row r="670" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A670" s="4">
         <v>950</v>
       </c>
@@ -39025,7 +39025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="671" spans="1:23">
+    <row r="671" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A671" s="4">
         <v>951</v>
       </c>
@@ -39063,7 +39063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="672" spans="1:23">
+    <row r="672" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A672" s="4">
         <v>327</v>
       </c>
@@ -39107,7 +39107,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="673" spans="1:23">
+    <row r="673" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A673" s="4">
         <v>328</v>
       </c>
@@ -39151,7 +39151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="674" spans="1:23">
+    <row r="674" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A674" s="4">
         <v>329</v>
       </c>
@@ -39195,7 +39195,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="675" spans="1:23" ht="15" customHeight="1">
+    <row r="675" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="4">
         <v>381</v>
       </c>
@@ -39239,7 +39239,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="676" spans="1:23">
+    <row r="676" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A676" s="4">
         <v>617</v>
       </c>
@@ -39283,7 +39283,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="677" spans="1:23">
+    <row r="677" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A677" s="4">
         <v>619</v>
       </c>
@@ -39327,7 +39327,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="678" spans="1:23">
+    <row r="678" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A678" s="4">
         <v>620</v>
       </c>
@@ -39371,7 +39371,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="679" spans="1:23">
+    <row r="679" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A679" s="4">
         <v>388</v>
       </c>
@@ -39415,7 +39415,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="680" spans="1:23">
+    <row r="680" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A680" s="4">
         <v>8</v>
       </c>
@@ -39453,7 +39453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="681" spans="1:23">
+    <row r="681" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A681" s="4">
         <v>668</v>
       </c>
@@ -39497,7 +39497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="682" spans="1:23">
+    <row r="682" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A682" s="4">
         <v>819</v>
       </c>
@@ -39541,7 +39541,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="683" spans="1:23">
+    <row r="683" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A683" s="4">
         <v>856</v>
       </c>
@@ -39585,7 +39585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="684" spans="1:23">
+    <row r="684" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A684" s="4">
         <v>919</v>
       </c>
@@ -39623,7 +39623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="685" spans="1:23">
+    <row r="685" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A685" s="4">
         <v>675</v>
       </c>
@@ -39667,7 +39667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="686" spans="1:23">
+    <row r="686" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A686" s="4">
         <v>755</v>
       </c>
@@ -39711,7 +39711,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="687" spans="1:23">
+    <row r="687" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A687" s="4">
         <v>901</v>
       </c>
@@ -39755,7 +39755,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="688" spans="1:23">
+    <row r="688" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A688" s="4">
         <v>902</v>
       </c>
@@ -39799,7 +39799,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="689" spans="1:23">
+    <row r="689" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A689" s="4">
         <v>903</v>
       </c>
@@ -39843,7 +39843,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="690" spans="1:23">
+    <row r="690" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A690" s="4">
         <v>161</v>
       </c>
@@ -39887,7 +39887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="691" spans="1:23">
+    <row r="691" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A691" s="4">
         <v>162</v>
       </c>
@@ -39931,7 +39931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="692" spans="1:23">
+    <row r="692" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A692" s="4">
         <v>163</v>
       </c>
@@ -39975,7 +39975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="693" spans="1:23">
+    <row r="693" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A693" s="4">
         <v>606</v>
       </c>
@@ -40019,7 +40019,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="694" spans="1:23">
+    <row r="694" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A694" s="4">
         <v>688</v>
       </c>
@@ -40063,7 +40063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="695" spans="1:23">
+    <row r="695" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A695" s="4">
         <v>689</v>
       </c>
@@ -40107,7 +40107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="696" spans="1:23">
+    <row r="696" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A696" s="4">
         <v>12</v>
       </c>
@@ -40151,7 +40151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="697" spans="1:23">
+    <row r="697" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A697" s="4">
         <v>90</v>
       </c>
@@ -40198,7 +40198,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="698" spans="1:23">
+    <row r="698" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A698" s="4">
         <v>91</v>
       </c>
@@ -40236,7 +40236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="699" spans="1:23">
+    <row r="699" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A699" s="4">
         <v>92</v>
       </c>
@@ -40274,7 +40274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="700" spans="1:23">
+    <row r="700" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A700" s="4">
         <v>93</v>
       </c>
@@ -40312,7 +40312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="701" spans="1:23">
+    <row r="701" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A701" s="4">
         <v>94</v>
       </c>
@@ -40356,7 +40356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="702" spans="1:23">
+    <row r="702" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A702" s="4">
         <v>540</v>
       </c>
@@ -40394,7 +40394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="703" spans="1:23">
+    <row r="703" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A703" s="4">
         <v>614</v>
       </c>
@@ -40432,7 +40432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="704" spans="1:23">
+    <row r="704" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A704" s="4">
         <v>697</v>
       </c>
@@ -40470,7 +40470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="705" spans="1:23">
+    <row r="705" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A705" s="4">
         <v>968</v>
       </c>
@@ -40508,7 +40508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="706" spans="1:23">
+    <row r="706" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A706" s="4">
         <v>969</v>
       </c>
@@ -40552,7 +40552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="707" spans="1:23">
+    <row r="707" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A707" s="4">
         <v>518</v>
       </c>
@@ -40587,7 +40587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:23">
+    <row r="708" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A708" s="4">
         <v>519</v>
       </c>
@@ -40622,7 +40622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:23">
+    <row r="709" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A709" s="4">
         <v>147</v>
       </c>
@@ -40666,7 +40666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="710" spans="1:23">
+    <row r="710" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A710" s="4">
         <v>676</v>
       </c>
@@ -40710,7 +40710,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="711" spans="1:23">
+    <row r="711" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A711" s="4">
         <v>570</v>
       </c>
@@ -40757,7 +40757,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="712" spans="1:23">
+    <row r="712" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A712" s="4">
         <v>600</v>
       </c>
@@ -40804,7 +40804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="713" spans="1:23">
+    <row r="713" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A713" s="4">
         <v>987</v>
       </c>
@@ -40851,7 +40851,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="714" spans="1:23">
+    <row r="714" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A714" s="4">
         <v>876</v>
       </c>
@@ -40895,7 +40895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="715" spans="1:23">
+    <row r="715" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A715" s="4">
         <v>157</v>
       </c>
@@ -40939,7 +40939,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="716" spans="1:23">
+    <row r="716" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A716" s="4">
         <v>538</v>
       </c>
@@ -40983,7 +40983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="717" spans="1:23">
+    <row r="717" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A717" s="4">
         <v>273</v>
       </c>
@@ -41027,7 +41027,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="718" spans="1:23">
+    <row r="718" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A718" s="4">
         <v>276</v>
       </c>
@@ -41071,7 +41071,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="719" spans="1:23">
+    <row r="719" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A719" s="4">
         <v>277</v>
       </c>
@@ -41109,7 +41109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="720" spans="1:23">
+    <row r="720" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A720" s="4">
         <v>278</v>
       </c>
@@ -41153,7 +41153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="721" spans="1:23">
+    <row r="721" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A721" s="4">
         <v>279</v>
       </c>
@@ -41197,7 +41197,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="722" spans="1:23">
+    <row r="722" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A722" s="4">
         <v>281</v>
       </c>
@@ -41241,7 +41241,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="723" spans="1:23">
+    <row r="723" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A723" s="4">
         <v>284</v>
       </c>
@@ -41285,7 +41285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="724" spans="1:23">
+    <row r="724" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A724" s="4">
         <v>286</v>
       </c>
@@ -41329,7 +41329,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="725" spans="1:23">
+    <row r="725" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A725" s="4">
         <v>288</v>
       </c>
@@ -41373,7 +41373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="726" spans="1:23">
+    <row r="726" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A726" s="4">
         <v>289</v>
       </c>
@@ -41417,7 +41417,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="727" spans="1:23">
+    <row r="727" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A727" s="4">
         <v>290</v>
       </c>
@@ -41461,7 +41461,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="728" spans="1:23">
+    <row r="728" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A728" s="4">
         <v>291</v>
       </c>
@@ -41505,7 +41505,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="729" spans="1:23">
+    <row r="729" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A729" s="4">
         <v>293</v>
       </c>
@@ -41549,7 +41549,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="730" spans="1:23">
+    <row r="730" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A730" s="4">
         <v>391</v>
       </c>
@@ -41593,7 +41593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="731" spans="1:23">
+    <row r="731" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A731" s="4">
         <v>484</v>
       </c>
@@ -41637,7 +41637,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="732" spans="1:23">
+    <row r="732" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A732" s="4">
         <v>485</v>
       </c>
@@ -41675,7 +41675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="733" spans="1:23">
+    <row r="733" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A733" s="4">
         <v>837</v>
       </c>
@@ -41722,7 +41722,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="734" spans="1:23">
+    <row r="734" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A734" s="4">
         <v>862</v>
       </c>
@@ -41769,7 +41769,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="735" spans="1:23">
+    <row r="735" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A735" s="4">
         <v>953</v>
       </c>
@@ -41828,6 +41828,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B70A6CF0D8440849932B13F83D66255D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8eeb03c3b9b61c4ed4f60633f2808ffb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c2bb546f-448a-4208-a6a3-70eb45ef93a6" xmlns:ns3="c1d44291-39af-47b8-9c57-02cfd16aa72d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f502f6350e19e8725f6000017e892a5" ns2:_="" ns3:_="">
     <xsd:import namespace="c2bb546f-448a-4208-a6a3-70eb45ef93a6"/>
@@ -42044,12 +42050,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -42060,13 +42060,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB69FFC6-9DC0-4398-BDEC-AD08E6087216}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D109EF-AB50-4EBA-BEB4-A501FD1C0ABD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D109EF-AB50-4EBA-BEB4-A501FD1C0ABD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB69FFC6-9DC0-4398-BDEC-AD08E6087216}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c2bb546f-448a-4208-a6a3-70eb45ef93a6"/>
+    <ds:schemaRef ds:uri="c1d44291-39af-47b8-9c57-02cfd16aa72d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B302BCB1-AF64-4B5E-9AD1-B86AF5AAC135}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B302BCB1-AF64-4B5E-9AD1-B86AF5AAC135}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>